--- a/FM-SCT.xlsx
+++ b/FM-SCT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wissawachit.nam\Desktop\API\nodejs-express-mysql-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wissawachit.nam\Documents\GitHub\SmartFFTWebApi-ExpressJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975C3A4D-18B6-45F3-8CC7-7648C72E8C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8212F40-5576-4E86-B29B-D1A712FA4C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4739D525-2586-4B2C-8122-7CE5CA8F6447}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4739D525-2586-4B2C-8122-7CE5CA8F6447}"/>
   </bookViews>
   <sheets>
     <sheet name="SCTNAME" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>DIRECT COST CALCULATION TABLE</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>Direct Cost Code</t>
-  </si>
-  <si>
-    <t>FFT</t>
   </si>
   <si>
     <t>Total Processing Time （MH）</t>
@@ -2024,7 +2021,7 @@
   <dimension ref="A1:AP251"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2691,12 +2688,8 @@
       <c r="A19" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="151" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="152" t="s">
-        <v>62</v>
-      </c>
+      <c r="B19" s="151"/>
+      <c r="C19" s="152"/>
       <c r="D19" s="151"/>
       <c r="F19" s="148">
         <f t="shared" si="0"/>
@@ -2734,7 +2727,7 @@
     </row>
     <row r="20" spans="1:42">
       <c r="A20" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="140">
         <f>SUM(AB16:AB71)/60</f>
@@ -2781,16 +2774,16 @@
     </row>
     <row r="21" spans="1:42">
       <c r="A21" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="140">
+        <v>64</v>
+      </c>
+      <c r="B21" s="140" t="str">
         <f>IF(B19="FFT",B20*(1+B18),"原価部門間違い")</f>
-        <v>0</v>
+        <v>原価部門間違い</v>
       </c>
       <c r="C21" s="153"/>
-      <c r="D21" s="140">
+      <c r="D21" s="140" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="F21" s="148">
         <f t="shared" si="0"/>
@@ -2828,16 +2821,16 @@
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="144" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="156">
+        <v>65</v>
+      </c>
+      <c r="B22" s="156" t="e">
         <f>SUM(B23,B32)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C22" s="157"/>
-      <c r="D22" s="156">
+      <c r="D22" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="F22" s="148">
         <f t="shared" si="0"/>
@@ -2875,16 +2868,16 @@
     </row>
     <row r="23" spans="1:42">
       <c r="A23" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="162">
+        <v>66</v>
+      </c>
+      <c r="B23" s="162" t="e">
         <f>ROUND(IF(B19="FFT",B21*B17,"原価部門間違い"),2)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C23" s="157"/>
-      <c r="D23" s="156">
+      <c r="D23" s="156" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="F23" s="148">
         <f t="shared" si="0"/>
@@ -2980,7 +2973,7 @@
     </row>
     <row r="25" spans="1:42">
       <c r="A25" s="171" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="167">
         <f>ROUND(SUMIF($H$16:$H$200,A25,$S$16:$S$200),2)</f>
@@ -3027,7 +3020,7 @@
     </row>
     <row r="26" spans="1:42">
       <c r="A26" s="176" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="177">
         <f>ROUND(SUMIF($H$16:$H$200,A26,$S$16:$S$200),2)</f>
@@ -3074,7 +3067,7 @@
     </row>
     <row r="27" spans="1:42">
       <c r="A27" s="166" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="178">
         <f>ROUND(SUMIF($H$16:$H$200,A27,$S$16:$S$200),2)</f>
@@ -3121,7 +3114,7 @@
     </row>
     <row r="28" spans="1:42">
       <c r="A28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="178">
         <f>ROUND(SUMIF($H$16:$H$200,A28,$S$16:$S$200),2)</f>
@@ -3168,7 +3161,7 @@
     </row>
     <row r="29" spans="1:42">
       <c r="A29" s="180" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="181">
         <f>SUM(B24:B28)</f>
@@ -3215,7 +3208,7 @@
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="183"/>
       <c r="C30" s="184"/>
@@ -3259,7 +3252,7 @@
     </row>
     <row r="31" spans="1:42">
       <c r="A31" s="166" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="186">
         <f>ROUND(B24*B30,2)</f>
@@ -3306,7 +3299,7 @@
     </row>
     <row r="32" spans="1:42">
       <c r="A32" s="188" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="189">
         <f>SUM(B29,B31)</f>
@@ -3563,7 +3556,7 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39" s="112">
         <f t="shared" si="0"/>
@@ -3601,7 +3594,7 @@
     </row>
     <row r="40" spans="1:32" ht="14.4">
       <c r="A40" s="193" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="194"/>
       <c r="F40" s="112">
@@ -3640,7 +3633,7 @@
     </row>
     <row r="41" spans="1:32" ht="14.4">
       <c r="A41" s="193" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="195"/>
       <c r="F41" s="112">
@@ -10173,7 +10166,7 @@
     <row r="201" spans="6:32" ht="13.8" thickTop="1"/>
     <row r="224" spans="10:11">
       <c r="J224" s="114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K224" s="175">
         <v>1</v>
@@ -10181,7 +10174,7 @@
     </row>
     <row r="225" spans="10:11">
       <c r="J225" s="114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K225" s="175">
         <v>1</v>
@@ -10189,7 +10182,7 @@
     </row>
     <row r="226" spans="10:11">
       <c r="J226" s="114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K226" s="175">
         <v>1</v>
@@ -10197,7 +10190,7 @@
     </row>
     <row r="227" spans="10:11">
       <c r="J227" s="114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K227" s="175">
         <v>1</v>
@@ -10205,7 +10198,7 @@
     </row>
     <row r="228" spans="10:11">
       <c r="J228" s="114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K228" s="175">
         <v>2</v>
@@ -10213,7 +10206,7 @@
     </row>
     <row r="229" spans="10:11">
       <c r="J229" s="114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K229" s="175">
         <v>2</v>
@@ -10221,7 +10214,7 @@
     </row>
     <row r="230" spans="10:11">
       <c r="J230" s="114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K230" s="175">
         <v>2</v>
@@ -10229,7 +10222,7 @@
     </row>
     <row r="231" spans="10:11">
       <c r="J231" s="114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K231" s="175">
         <v>2</v>
@@ -10237,7 +10230,7 @@
     </row>
     <row r="232" spans="10:11">
       <c r="J232" s="114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K232" s="175">
         <v>2</v>
@@ -10245,7 +10238,7 @@
     </row>
     <row r="233" spans="10:11">
       <c r="J233" s="114" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K233" s="175">
         <v>4</v>
@@ -10253,7 +10246,7 @@
     </row>
     <row r="234" spans="10:11">
       <c r="J234" s="114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K234" s="175">
         <v>4</v>
@@ -10261,7 +10254,7 @@
     </row>
     <row r="235" spans="10:11">
       <c r="J235" s="114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K235" s="175">
         <v>5</v>
@@ -10269,7 +10262,7 @@
     </row>
     <row r="236" spans="10:11">
       <c r="J236" s="114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K236" s="175">
         <v>8</v>
@@ -10277,7 +10270,7 @@
     </row>
     <row r="237" spans="10:11">
       <c r="J237" s="114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K237" s="175">
         <v>9</v>
@@ -10285,7 +10278,7 @@
     </row>
     <row r="238" spans="10:11">
       <c r="J238" s="114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K238" s="175">
         <v>9</v>
@@ -10293,7 +10286,7 @@
     </row>
     <row r="239" spans="10:11">
       <c r="J239" s="114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K239" s="175">
         <v>9</v>
@@ -10301,7 +10294,7 @@
     </row>
     <row r="240" spans="10:11">
       <c r="J240" s="114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K240" s="175">
         <v>9</v>
@@ -10309,7 +10302,7 @@
     </row>
     <row r="241" spans="10:11">
       <c r="J241" s="114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K241" s="175">
         <v>10</v>
@@ -10317,7 +10310,7 @@
     </row>
     <row r="242" spans="10:11">
       <c r="J242" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K242" s="175">
         <v>14</v>
@@ -10325,7 +10318,7 @@
     </row>
     <row r="243" spans="10:11">
       <c r="J243" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K243" s="175">
         <v>16</v>
@@ -10333,7 +10326,7 @@
     </row>
     <row r="244" spans="10:11">
       <c r="J244" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K244" s="175">
         <v>24</v>
@@ -10341,7 +10334,7 @@
     </row>
     <row r="245" spans="10:11">
       <c r="J245" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K245" s="175">
         <v>31</v>
@@ -10349,7 +10342,7 @@
     </row>
     <row r="246" spans="10:11">
       <c r="J246" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K246" s="175">
         <v>31</v>
@@ -10357,7 +10350,7 @@
     </row>
     <row r="247" spans="10:11">
       <c r="J247" s="114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K247" s="175">
         <v>31</v>
@@ -10365,7 +10358,7 @@
     </row>
     <row r="248" spans="10:11">
       <c r="J248" s="114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K248" s="175">
         <v>31</v>
@@ -10373,7 +10366,7 @@
     </row>
     <row r="249" spans="10:11">
       <c r="J249" s="114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K249" s="175">
         <v>31</v>
@@ -10387,7 +10380,7 @@
     </row>
     <row r="251" spans="10:11">
       <c r="J251" s="114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K251" s="175">
         <v>33</v>
